--- a/Code/Results/Cases/Case_4_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.5091220105964</v>
+        <v>4.18974298904908</v>
       </c>
       <c r="C2">
-        <v>1.357427956812444</v>
+        <v>1.010846160492292</v>
       </c>
       <c r="D2">
-        <v>0.1302656897925019</v>
+        <v>0.3019806785874479</v>
       </c>
       <c r="E2">
-        <v>0.02212430284913047</v>
+        <v>0.04244905478493433</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008748666608202027</v>
+        <v>0.002794105262723612</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.22862566538942</v>
+        <v>7.428878210540375</v>
       </c>
       <c r="J2">
-        <v>0.07240746287356359</v>
+        <v>0.02118217562691882</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4901338538510771</v>
+        <v>0.8093344390344441</v>
       </c>
       <c r="M2">
-        <v>0.5899432096111141</v>
+        <v>1.00447362285572</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.242702404733507</v>
+        <v>4.19465038627834</v>
       </c>
       <c r="C3">
-        <v>1.186076663587357</v>
+        <v>0.9752333885112989</v>
       </c>
       <c r="D3">
-        <v>0.1253804542708465</v>
+        <v>0.302344670193321</v>
       </c>
       <c r="E3">
-        <v>0.02117689792481237</v>
+        <v>0.04211969215485656</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008900529162958834</v>
+        <v>0.002802507571648123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.164490575318553</v>
+        <v>7.125078497093824</v>
       </c>
       <c r="J3">
-        <v>0.06174011087662734</v>
+        <v>0.01844681198096509</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4536906346315561</v>
+        <v>0.8049526275201515</v>
       </c>
       <c r="M3">
-        <v>0.5347615761371642</v>
+        <v>1.003509925284511</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.089682020795692</v>
+        <v>4.201484049620547</v>
       </c>
       <c r="C4">
-        <v>1.084542275087415</v>
+        <v>0.9540371283532068</v>
       </c>
       <c r="D4">
-        <v>0.1225896706114469</v>
+        <v>0.3026694991301184</v>
       </c>
       <c r="E4">
-        <v>0.0206093481187799</v>
+        <v>0.04191215212604238</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008995202493983374</v>
+        <v>0.002807925473726371</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.527229276296936</v>
+        <v>6.93853980787739</v>
       </c>
       <c r="J4">
-        <v>0.05538464184453318</v>
+        <v>0.01677422461466449</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4323324399326793</v>
+        <v>0.8026065926257218</v>
       </c>
       <c r="M4">
-        <v>0.5028864338481966</v>
+        <v>1.003657338181924</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.029666579009302</v>
+        <v>4.205226426963151</v>
       </c>
       <c r="C5">
-        <v>1.04395831319016</v>
+        <v>0.9455662023648301</v>
       </c>
       <c r="D5">
-        <v>0.1215003969514754</v>
+        <v>0.3028273463906999</v>
       </c>
       <c r="E5">
-        <v>0.02038074720076732</v>
+        <v>0.04182622436809957</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009034203232102022</v>
+        <v>0.002810198681215834</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.270904974556117</v>
+        <v>6.862509587364627</v>
       </c>
       <c r="J5">
-        <v>0.05283520439090239</v>
+        <v>0.01609423538869947</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4238559362113818</v>
+        <v>0.8017369195182624</v>
       </c>
       <c r="M5">
-        <v>0.4903439156345826</v>
+        <v>1.00390276037745</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.01983408512541</v>
+        <v>4.205905594472995</v>
       </c>
       <c r="C6">
-        <v>1.037263673696089</v>
+        <v>0.9441696297137696</v>
       </c>
       <c r="D6">
-        <v>0.1213223015135654</v>
+        <v>0.302855095436783</v>
       </c>
       <c r="E6">
-        <v>0.02034292666618764</v>
+        <v>0.04181187385100982</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009040706326711622</v>
+        <v>0.002810580101820899</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.228527202439665</v>
+        <v>6.84988359130142</v>
       </c>
       <c r="J6">
-        <v>0.05241409158165311</v>
+        <v>0.01598141648720741</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4224613619342534</v>
+        <v>0.801597719469612</v>
       </c>
       <c r="M6">
-        <v>0.4882866845126728</v>
+        <v>1.003954692746817</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.088863535517248</v>
+        <v>4.201530647300672</v>
       </c>
       <c r="C7">
-        <v>1.083991900710089</v>
+        <v>0.953922213760336</v>
       </c>
       <c r="D7">
-        <v>0.122574791504455</v>
+        <v>0.3026715247642713</v>
       </c>
       <c r="E7">
-        <v>0.0206062553481603</v>
+        <v>0.04191099877864257</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008995726693806331</v>
+        <v>0.002807955865915737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.523759621986471</v>
+        <v>6.937514512358632</v>
       </c>
       <c r="J7">
-        <v>0.05535010568695498</v>
+        <v>0.01676504773351439</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.432217238696623</v>
+        <v>0.8025945145828075</v>
       </c>
       <c r="M7">
-        <v>0.5027155425107281</v>
+        <v>1.003659898207118</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.41486502607205</v>
+        <v>4.190640203072292</v>
       </c>
       <c r="C8">
-        <v>1.297497771659778</v>
+        <v>0.9984266924798817</v>
       </c>
       <c r="D8">
-        <v>0.1285350302736674</v>
+        <v>0.3020851464058367</v>
       </c>
       <c r="E8">
-        <v>0.02179412665696656</v>
+        <v>0.04233658154586539</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008800771594887389</v>
+        <v>0.002796948822512474</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.857922399890214</v>
+        <v>7.324120989000761</v>
       </c>
       <c r="J8">
-        <v>0.068683602707722</v>
+        <v>0.02023749641305983</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4773383271218705</v>
+        <v>0.8077519501703847</v>
       </c>
       <c r="M8">
-        <v>0.5704628292080827</v>
+        <v>1.003987617503093</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.154884594806845</v>
+        <v>4.199750640960133</v>
       </c>
       <c r="C9">
-        <v>1.752427127100191</v>
+        <v>1.091104681507034</v>
       </c>
       <c r="D9">
-        <v>0.142119384976958</v>
+        <v>0.3017398586266395</v>
       </c>
       <c r="E9">
-        <v>0.02428385967638036</v>
+        <v>0.04312986625766779</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008426548097732937</v>
+        <v>0.002777405148661663</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.63876376048279</v>
+        <v>8.082848920632671</v>
       </c>
       <c r="J9">
-        <v>0.09682341153315832</v>
+        <v>0.02710873624928212</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5754384779205992</v>
+        <v>0.820611548326923</v>
       </c>
       <c r="M9">
-        <v>0.7223354418247041</v>
+        <v>1.010520663586277</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.789174436466169</v>
+        <v>4.225248029839179</v>
       </c>
       <c r="C10">
-        <v>2.120879680601888</v>
+        <v>1.162621968421831</v>
       </c>
       <c r="D10">
-        <v>0.1536636662365822</v>
+        <v>0.3019778784772598</v>
       </c>
       <c r="E10">
-        <v>0.02629477959213666</v>
+        <v>0.04368874468657324</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008150993212425646</v>
+        <v>0.002764272775331065</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.84436001610717</v>
+        <v>8.641576544819941</v>
       </c>
       <c r="J10">
-        <v>0.1194882208645467</v>
+        <v>0.03220460023737104</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.655999763382809</v>
+        <v>0.8317542251247261</v>
       </c>
       <c r="M10">
-        <v>0.8508380996525418</v>
+        <v>1.018951175908768</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.106112191164584</v>
+        <v>4.240983897981494</v>
       </c>
       <c r="C11">
-        <v>2.299510014037764</v>
+        <v>1.195930980736421</v>
       </c>
       <c r="D11">
-        <v>0.1593742799031048</v>
+        <v>0.3021932553595548</v>
       </c>
       <c r="E11">
-        <v>0.02727463921760087</v>
+        <v>0.04393806216136831</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008023878116408001</v>
+        <v>0.002758560941591468</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.90120005510755</v>
+        <v>8.896243519053371</v>
       </c>
       <c r="J11">
-        <v>0.130461877881217</v>
+        <v>0.03453538431614334</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6952620372446745</v>
+        <v>0.8371961568799975</v>
       </c>
       <c r="M11">
-        <v>0.9145537700605004</v>
+        <v>1.023584063744948</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.231176708319879</v>
+        <v>4.24754193731394</v>
       </c>
       <c r="C12">
-        <v>2.369130909813009</v>
+        <v>1.20865808798078</v>
       </c>
       <c r="D12">
-        <v>0.1616157289787594</v>
+        <v>0.3022902389923985</v>
       </c>
       <c r="E12">
-        <v>0.02765793111286996</v>
+        <v>0.04403178646069339</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007975311761013094</v>
+        <v>0.002756435414589686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.3110682022803</v>
+        <v>8.992767199198056</v>
       </c>
       <c r="J12">
-        <v>0.1347381843880768</v>
+        <v>0.03541998597848561</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7105896793137134</v>
+        <v>0.8393108987461062</v>
       </c>
       <c r="M12">
-        <v>0.9396120745575658</v>
+        <v>1.025453891070917</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.203999244942054</v>
+        <v>4.246102825732578</v>
       </c>
       <c r="C13">
-        <v>2.354041499164225</v>
+        <v>1.205911984880061</v>
       </c>
       <c r="D13">
-        <v>0.1611292397010118</v>
+        <v>0.3022686653854123</v>
       </c>
       <c r="E13">
-        <v>0.02757478326564566</v>
+        <v>0.04401163147138032</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007985793855530917</v>
+        <v>0.00275689152508014</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.22232914019656</v>
+        <v>8.971974992852552</v>
       </c>
       <c r="J13">
-        <v>0.1338113541162329</v>
+        <v>0.03522938025906797</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7072665787911063</v>
+        <v>0.8388530437877932</v>
       </c>
       <c r="M13">
-        <v>0.934170664014637</v>
+        <v>1.02504604353301</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.116293743421465</v>
+        <v>4.241511397501824</v>
       </c>
       <c r="C14">
-        <v>2.305195523200439</v>
+        <v>1.196975755825463</v>
       </c>
       <c r="D14">
-        <v>0.1595570170319718</v>
+        <v>0.3022009249717428</v>
       </c>
       <c r="E14">
-        <v>0.02730590815920664</v>
+        <v>0.04394578656164505</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000801989233721475</v>
+        <v>0.002758385324822711</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.93471338708537</v>
+        <v>8.904182752802399</v>
       </c>
       <c r="J14">
-        <v>0.130811101194098</v>
+        <v>0.03460812029808835</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6965132789342334</v>
+        <v>0.837369053642476</v>
       </c>
       <c r="M14">
-        <v>0.9165955211628756</v>
+        <v>1.023735577421235</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.063261769991414</v>
+        <v>4.238777180579916</v>
       </c>
       <c r="C15">
-        <v>2.275546848126965</v>
+        <v>1.191516931877402</v>
       </c>
       <c r="D15">
-        <v>0.1586047073977142</v>
+        <v>0.3021614415757483</v>
       </c>
       <c r="E15">
-        <v>0.02714290762842619</v>
+        <v>0.0439053658256725</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008040716550922187</v>
+        <v>0.002759305185393648</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.75986602542531</v>
+        <v>8.862669807913676</v>
       </c>
       <c r="J15">
-        <v>0.1289899617804693</v>
+        <v>0.03422784402012979</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.689989308317962</v>
+        <v>0.836467110006339</v>
       </c>
       <c r="M15">
-        <v>0.9059573660637241</v>
+        <v>1.022947936688787</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.769110109641588</v>
+        <v>4.224303265461799</v>
       </c>
       <c r="C16">
-        <v>2.10945890821904</v>
+        <v>1.160460936622371</v>
       </c>
       <c r="D16">
-        <v>0.1533007393050809</v>
+        <v>0.3019659602340568</v>
       </c>
       <c r="E16">
-        <v>0.02623228200449823</v>
+        <v>0.04367235396581837</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008159250832324716</v>
+        <v>0.002764651307977676</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.77652763437871</v>
+        <v>8.624944781251145</v>
       </c>
       <c r="J16">
-        <v>0.1187864447145301</v>
+        <v>0.03205254660902312</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6534932088489143</v>
+        <v>0.8314061191049831</v>
       </c>
       <c r="M16">
-        <v>0.8467938787433766</v>
+        <v>1.018664521368649</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.59654293442884</v>
+        <v>4.216486583966741</v>
       </c>
       <c r="C17">
-        <v>2.010642022166394</v>
+        <v>1.14160924417655</v>
       </c>
       <c r="D17">
-        <v>0.1501727884720765</v>
+        <v>0.3018734861441317</v>
       </c>
       <c r="E17">
-        <v>0.02569212984449365</v>
+        <v>0.04352816333378229</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008231403058369833</v>
+        <v>0.002767997927616688</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.18824619720107</v>
+        <v>8.479246605175831</v>
       </c>
       <c r="J17">
-        <v>0.1127129848269135</v>
+        <v>0.03072142848303372</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6318272777275382</v>
+        <v>0.828397164509866</v>
       </c>
       <c r="M17">
-        <v>0.8119569169264054</v>
+        <v>1.016241631578936</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.49988980504105</v>
+        <v>4.212379759330645</v>
       </c>
       <c r="C18">
-        <v>1.9548140002492</v>
+        <v>1.130839102104687</v>
       </c>
       <c r="D18">
-        <v>0.1484159527939823</v>
+        <v>0.3018303766952783</v>
       </c>
       <c r="E18">
-        <v>0.02538736375364881</v>
+        <v>0.04344476443294454</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008272749839196524</v>
+        <v>0.002769947505687516</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.85477659789461</v>
+        <v>8.395490914187434</v>
       </c>
       <c r="J18">
-        <v>0.1092802851814625</v>
+        <v>0.02995698511191591</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6196056628302102</v>
+        <v>0.8267015867396026</v>
       </c>
       <c r="M18">
-        <v>0.792402030196719</v>
+        <v>1.014923097210321</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.467586231913401</v>
+        <v>4.211055962631633</v>
       </c>
       <c r="C19">
-        <v>1.936074411220943</v>
+        <v>1.127204963567749</v>
       </c>
       <c r="D19">
-        <v>0.147828033726455</v>
+        <v>0.3018175109962016</v>
       </c>
       <c r="E19">
-        <v>0.02528511543340262</v>
+        <v>0.04341644664103494</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00082867275437426</v>
+        <v>0.00277061184848548</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.74265743052229</v>
+        <v>8.367140130568828</v>
       </c>
       <c r="J19">
-        <v>0.1081277643741672</v>
+        <v>0.02969835551167677</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6155066253904806</v>
+        <v>0.8261335100302176</v>
       </c>
       <c r="M19">
-        <v>0.7858593082165086</v>
+        <v>1.014489531898427</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.614637396517935</v>
+        <v>4.217278379510276</v>
       </c>
       <c r="C20">
-        <v>2.021054297267312</v>
+        <v>1.143608483290564</v>
       </c>
       <c r="D20">
-        <v>0.1505013043848038</v>
+        <v>0.3018822868435223</v>
       </c>
       <c r="E20">
-        <v>0.02574899933105002</v>
+        <v>0.04354356057449582</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008223739340903652</v>
+        <v>0.002767639120629332</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.25035041501133</v>
+        <v>8.494751550914316</v>
       </c>
       <c r="J20">
-        <v>0.11335307965998</v>
+        <v>0.03086300491060001</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6341082643084377</v>
+        <v>0.8287138383261237</v>
       </c>
       <c r="M20">
-        <v>0.8156143176731092</v>
+        <v>1.016491779988627</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.14190904993734</v>
+        <v>4.242843713712659</v>
       </c>
       <c r="C21">
-        <v>2.319485466530523</v>
+        <v>1.199597439099534</v>
       </c>
       <c r="D21">
-        <v>0.1600165546349359</v>
+        <v>0.3022204031362037</v>
       </c>
       <c r="E21">
-        <v>0.02738452409671499</v>
+        <v>0.04396514528214901</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008009890108245277</v>
+        <v>0.002757945546381185</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.01891261583279</v>
+        <v>8.924092498994526</v>
       </c>
       <c r="J21">
-        <v>0.1316888331586199</v>
+        <v>0.03479054421871552</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6996585289651449</v>
+        <v>0.8378034690785654</v>
       </c>
       <c r="M21">
-        <v>0.9217308958196355</v>
+        <v>1.024117353746973</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.51657913596631</v>
+        <v>4.26304690167143</v>
       </c>
       <c r="C22">
-        <v>2.526316364461934</v>
+        <v>1.236853296082586</v>
       </c>
       <c r="D22">
-        <v>0.1667041384482673</v>
+        <v>0.3025313039223931</v>
       </c>
       <c r="E22">
-        <v>0.02852676295776391</v>
+        <v>0.04423668177048157</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007867499429523195</v>
+        <v>0.002751828219757289</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.23241367167384</v>
+        <v>9.205204920225412</v>
       </c>
       <c r="J22">
-        <v>0.1443936532954311</v>
+        <v>0.03736906373196547</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7452355800176775</v>
+        <v>0.8440589983345745</v>
       </c>
       <c r="M22">
-        <v>0.9966252031955918</v>
+        <v>1.029774417580256</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.313469879849947</v>
+        <v>4.251942838825073</v>
       </c>
       <c r="C23">
-        <v>2.41469002495171</v>
+        <v>1.21690765987006</v>
       </c>
       <c r="D23">
-        <v>0.163086775470731</v>
+        <v>0.3023571337712667</v>
       </c>
       <c r="E23">
-        <v>0.02790923988720095</v>
+        <v>0.04409211615364583</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007943807510341204</v>
+        <v>0.002755073297874174</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.57868236268195</v>
+        <v>9.055117903958887</v>
       </c>
       <c r="J23">
-        <v>0.1375365767301275</v>
+        <v>0.03599173818153645</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7206262688809204</v>
+        <v>0.8406913680314574</v>
       </c>
       <c r="M23">
-        <v>0.9560754107069727</v>
+        <v>1.02669327902727</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.606448991684658</v>
+        <v>4.216919203371958</v>
       </c>
       <c r="C24">
-        <v>2.016343873736048</v>
+        <v>1.142704415813284</v>
       </c>
       <c r="D24">
-        <v>0.1503526541194162</v>
+        <v>0.3018782767301218</v>
       </c>
       <c r="E24">
-        <v>0.02572327085583215</v>
+        <v>0.04353660104648682</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008227204509874353</v>
+        <v>0.002767801257616443</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.22225847231135</v>
+        <v>8.487741740754927</v>
       </c>
       <c r="J24">
-        <v>0.1130635107995062</v>
+        <v>0.03079899562229826</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6330763061573634</v>
+        <v>0.8285705632512617</v>
       </c>
       <c r="M24">
-        <v>0.8139593449502556</v>
+        <v>1.0163784561543</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.941247865902994</v>
+        <v>4.194001074140544</v>
       </c>
       <c r="C25">
-        <v>1.624368064893986</v>
+        <v>1.065440776668368</v>
       </c>
       <c r="D25">
-        <v>0.1382039880992778</v>
+        <v>0.3017470150730261</v>
       </c>
       <c r="E25">
-        <v>0.02358557652067717</v>
+        <v>0.04291955643820611</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008527428607614907</v>
+        <v>0.002782475569276754</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.86314032156758</v>
+        <v>7.877434371012697</v>
       </c>
       <c r="J25">
-        <v>0.08892675504579017</v>
+        <v>0.02524225850285688</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5476294889138273</v>
+        <v>0.8168366219946392</v>
       </c>
       <c r="M25">
-        <v>0.6787276129823141</v>
+        <v>1.008118686976751</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.18974298904908</v>
+        <v>2.509122010596059</v>
       </c>
       <c r="C2">
-        <v>1.010846160492292</v>
+        <v>1.357427956811875</v>
       </c>
       <c r="D2">
-        <v>0.3019806785874479</v>
+        <v>0.1302656897924521</v>
       </c>
       <c r="E2">
-        <v>0.04244905478493433</v>
+        <v>0.02212430284917222</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002794105262723612</v>
+        <v>0.0008748666606657774</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.428878210540375</v>
+        <v>10.22862566538944</v>
       </c>
       <c r="J2">
-        <v>0.02118217562691882</v>
+        <v>0.07240746287347832</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8093344390344441</v>
+        <v>0.4901338538510345</v>
       </c>
       <c r="M2">
-        <v>1.00447362285572</v>
+        <v>0.5899432096111283</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.19465038627834</v>
+        <v>2.24270240473345</v>
       </c>
       <c r="C3">
-        <v>0.9752333885112989</v>
+        <v>1.186076663586903</v>
       </c>
       <c r="D3">
-        <v>0.302344670193321</v>
+        <v>0.12538045427047</v>
       </c>
       <c r="E3">
-        <v>0.04211969215485656</v>
+        <v>0.02117689792466226</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002802507571648123</v>
+        <v>0.0008900529161730749</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.125078497093824</v>
+        <v>9.16449057531841</v>
       </c>
       <c r="J3">
-        <v>0.01844681198096509</v>
+        <v>0.06174011087685471</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8049526275201515</v>
+        <v>0.4536906346315135</v>
       </c>
       <c r="M3">
-        <v>1.003509925284511</v>
+        <v>0.5347615761371713</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.201484049620547</v>
+        <v>2.089682020795465</v>
       </c>
       <c r="C4">
-        <v>0.9540371283532068</v>
+        <v>1.084542275087358</v>
       </c>
       <c r="D4">
-        <v>0.3026694991301184</v>
+        <v>0.1225896706115819</v>
       </c>
       <c r="E4">
-        <v>0.04191215212604238</v>
+        <v>0.02060934811874215</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002807925473726371</v>
+        <v>0.0008995202495013739</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.93853980787739</v>
+        <v>8.527229276296993</v>
       </c>
       <c r="J4">
-        <v>0.01677422461466449</v>
+        <v>0.05538464184483161</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8026065926257218</v>
+        <v>0.4323324399328499</v>
       </c>
       <c r="M4">
-        <v>1.003657338181924</v>
+        <v>0.5028864338482322</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.205226426963151</v>
+        <v>2.029666579008875</v>
       </c>
       <c r="C5">
-        <v>0.9455662023648301</v>
+        <v>1.04395831318925</v>
       </c>
       <c r="D5">
-        <v>0.3028273463906999</v>
+        <v>0.121500396951518</v>
       </c>
       <c r="E5">
-        <v>0.04182622436809957</v>
+        <v>0.02038074720078153</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002810198681215834</v>
+        <v>0.0009034203233452864</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.862509587364627</v>
+        <v>8.270904974556089</v>
       </c>
       <c r="J5">
-        <v>0.01609423538869947</v>
+        <v>0.05283520439073186</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8017369195182624</v>
+        <v>0.4238559362114387</v>
       </c>
       <c r="M5">
-        <v>1.00390276037745</v>
+        <v>0.4903439156345897</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.205905594472995</v>
+        <v>2.019834085125353</v>
       </c>
       <c r="C6">
-        <v>0.9441696297137696</v>
+        <v>1.037263673696486</v>
       </c>
       <c r="D6">
-        <v>0.302855095436783</v>
+        <v>0.1213223015136435</v>
       </c>
       <c r="E6">
-        <v>0.04181187385100982</v>
+        <v>0.02034292666624138</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002810580101820899</v>
+        <v>0.000904070632642698</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.84988359130142</v>
+        <v>8.228527202439835</v>
       </c>
       <c r="J6">
-        <v>0.01598141648720741</v>
+        <v>0.05241409158139021</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.801597719469612</v>
+        <v>0.4224613619343955</v>
       </c>
       <c r="M6">
-        <v>1.003954692746817</v>
+        <v>0.4882866845126514</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.201530647300672</v>
+        <v>2.088863535517532</v>
       </c>
       <c r="C7">
-        <v>0.953922213760336</v>
+        <v>1.083991900710942</v>
       </c>
       <c r="D7">
-        <v>0.3026715247642713</v>
+        <v>0.1225747915042916</v>
       </c>
       <c r="E7">
-        <v>0.04191099877864257</v>
+        <v>0.02060625534835925</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002807955865915737</v>
+        <v>0.0008995726692256278</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.937514512358632</v>
+        <v>8.52375962198667</v>
       </c>
       <c r="J7">
-        <v>0.01676504773351439</v>
+        <v>0.05535010568701892</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8025945145828075</v>
+        <v>0.4322172386968361</v>
       </c>
       <c r="M7">
-        <v>1.003659898207118</v>
+        <v>0.502715542510785</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.190640203072292</v>
+        <v>2.414865026072164</v>
       </c>
       <c r="C8">
-        <v>0.9984266924798817</v>
+        <v>1.297497771659721</v>
       </c>
       <c r="D8">
-        <v>0.3020851464058367</v>
+        <v>0.128535030273099</v>
       </c>
       <c r="E8">
-        <v>0.04233658154586539</v>
+        <v>0.0217941266570687</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002796948822512474</v>
+        <v>0.0008800771597899282</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.324120989000761</v>
+        <v>9.857922399890128</v>
       </c>
       <c r="J8">
-        <v>0.02023749641305983</v>
+        <v>0.06868360270740936</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8077519501703847</v>
+        <v>0.4773383271220411</v>
       </c>
       <c r="M8">
-        <v>1.003987617503093</v>
+        <v>0.5704628292081182</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.199750640960133</v>
+        <v>3.154884594807129</v>
       </c>
       <c r="C9">
-        <v>1.091104681507034</v>
+        <v>1.752427127100191</v>
       </c>
       <c r="D9">
-        <v>0.3017398586266395</v>
+        <v>0.1421193849767235</v>
       </c>
       <c r="E9">
-        <v>0.04312986625766779</v>
+        <v>0.02428385967649582</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002777405148661663</v>
+        <v>0.0008426548097858112</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.082848920632671</v>
+        <v>12.63876376048273</v>
       </c>
       <c r="J9">
-        <v>0.02710873624928212</v>
+        <v>0.09682341153350649</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.820611548326923</v>
+        <v>0.5754384779202724</v>
       </c>
       <c r="M9">
-        <v>1.010520663586277</v>
+        <v>0.7223354418247467</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.225248029839179</v>
+        <v>3.789174436466055</v>
       </c>
       <c r="C10">
-        <v>1.162621968421831</v>
+        <v>2.120879680602172</v>
       </c>
       <c r="D10">
-        <v>0.3019778784772598</v>
+        <v>0.1536636662361417</v>
       </c>
       <c r="E10">
-        <v>0.04368874468657324</v>
+        <v>0.02629477959201676</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002764272775331065</v>
+        <v>0.0008150993215574399</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.641576544819941</v>
+        <v>14.84436001610729</v>
       </c>
       <c r="J10">
-        <v>0.03220460023737104</v>
+        <v>0.1194882208645964</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8317542251247261</v>
+        <v>0.6559997633823826</v>
       </c>
       <c r="M10">
-        <v>1.018951175908768</v>
+        <v>0.8508380996525062</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.240983897981494</v>
+        <v>4.106112191164641</v>
       </c>
       <c r="C11">
-        <v>1.195930980736421</v>
+        <v>2.299510014037764</v>
       </c>
       <c r="D11">
-        <v>0.3021932553595548</v>
+        <v>0.1593742799033748</v>
       </c>
       <c r="E11">
-        <v>0.04393806216136831</v>
+        <v>0.0272746392176062</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002758560941591468</v>
+        <v>0.0008023878116274318</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.896243519053371</v>
+        <v>15.90120005510772</v>
       </c>
       <c r="J11">
-        <v>0.03453538431614334</v>
+        <v>0.1304618778812667</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8371961568799975</v>
+        <v>0.6952620372447029</v>
       </c>
       <c r="M11">
-        <v>1.023584063744948</v>
+        <v>0.9145537700605502</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.24754193731394</v>
+        <v>4.231176708319481</v>
       </c>
       <c r="C12">
-        <v>1.20865808798078</v>
+        <v>2.369130909812782</v>
       </c>
       <c r="D12">
-        <v>0.3022902389923985</v>
+        <v>0.1616157289780347</v>
       </c>
       <c r="E12">
-        <v>0.04403178646069339</v>
+        <v>0.02765793111281223</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002756435414589686</v>
+        <v>0.0007975311759452797</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.992767199198056</v>
+        <v>16.31106820228075</v>
       </c>
       <c r="J12">
-        <v>0.03541998597848561</v>
+        <v>0.1347381843882545</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8393108987461062</v>
+        <v>0.710589679313955</v>
       </c>
       <c r="M12">
-        <v>1.025453891070917</v>
+        <v>0.9396120745575729</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.246102825732578</v>
+        <v>4.20399924494177</v>
       </c>
       <c r="C13">
-        <v>1.205911984880061</v>
+        <v>2.354041499163941</v>
       </c>
       <c r="D13">
-        <v>0.3022686653854123</v>
+        <v>0.1611292397010828</v>
       </c>
       <c r="E13">
-        <v>0.04401163147138032</v>
+        <v>0.02757478326547425</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00275689152508014</v>
+        <v>0.0007985793853060308</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.971974992852552</v>
+        <v>16.22232914019634</v>
       </c>
       <c r="J13">
-        <v>0.03522938025906797</v>
+        <v>0.1338113541161832</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8388530437877932</v>
+        <v>0.7072665787908647</v>
       </c>
       <c r="M13">
-        <v>1.02504604353301</v>
+        <v>0.9341706640145802</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.241511397501824</v>
+        <v>4.116293743421409</v>
       </c>
       <c r="C14">
-        <v>1.196975755825463</v>
+        <v>2.305195523201633</v>
       </c>
       <c r="D14">
-        <v>0.3022009249717428</v>
+        <v>0.1595570170328813</v>
       </c>
       <c r="E14">
-        <v>0.04394578656164505</v>
+        <v>0.02730590815912137</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002758385324822711</v>
+        <v>0.0008019892337008074</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.904182752802399</v>
+        <v>15.9347133870852</v>
       </c>
       <c r="J14">
-        <v>0.03460812029808835</v>
+        <v>0.1308111011942543</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.837369053642476</v>
+        <v>0.6965132789341055</v>
       </c>
       <c r="M14">
-        <v>1.023735577421235</v>
+        <v>0.9165955211628614</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.238777180579916</v>
+        <v>4.063261769991414</v>
       </c>
       <c r="C15">
-        <v>1.191516931877402</v>
+        <v>2.275546848127192</v>
       </c>
       <c r="D15">
-        <v>0.3021614415757483</v>
+        <v>0.1586047073967762</v>
       </c>
       <c r="E15">
-        <v>0.0439053658256725</v>
+        <v>0.02714290762858163</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002759305185393648</v>
+        <v>0.00080407165495802</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.862669807913676</v>
+        <v>15.75986602542503</v>
       </c>
       <c r="J15">
-        <v>0.03422784402012979</v>
+        <v>0.1289899617806327</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.836467110006339</v>
+        <v>0.6899893083176778</v>
       </c>
       <c r="M15">
-        <v>1.022947936688787</v>
+        <v>0.9059573660638236</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.224303265461799</v>
+        <v>3.769110109641815</v>
       </c>
       <c r="C16">
-        <v>1.160460936622371</v>
+        <v>2.109458908219437</v>
       </c>
       <c r="D16">
-        <v>0.3019659602340568</v>
+        <v>0.1533007393053794</v>
       </c>
       <c r="E16">
-        <v>0.04367235396581837</v>
+        <v>0.02623228200453021</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002764651307977676</v>
+        <v>0.0008159250832247193</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.624944781251145</v>
+        <v>14.77652763437871</v>
       </c>
       <c r="J16">
-        <v>0.03205254660902312</v>
+        <v>0.1187864447146083</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8314061191049831</v>
+        <v>0.6534932088489853</v>
       </c>
       <c r="M16">
-        <v>1.018664521368649</v>
+        <v>0.8467938787434335</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.216486583966741</v>
+        <v>3.596542934429067</v>
       </c>
       <c r="C17">
-        <v>1.14160924417655</v>
+        <v>2.01064202216628</v>
       </c>
       <c r="D17">
-        <v>0.3018734861441317</v>
+        <v>0.150172788471906</v>
       </c>
       <c r="E17">
-        <v>0.04352816333378229</v>
+        <v>0.02569212984453628</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002767997927616688</v>
+        <v>0.0008231403057440195</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.479246605175831</v>
+        <v>14.18824619720129</v>
       </c>
       <c r="J17">
-        <v>0.03072142848303372</v>
+        <v>0.1127129848271053</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.828397164509866</v>
+        <v>0.6318272777269698</v>
       </c>
       <c r="M17">
-        <v>1.016241631578936</v>
+        <v>0.8119569169264196</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.212379759330645</v>
+        <v>3.499889805041164</v>
       </c>
       <c r="C18">
-        <v>1.130839102104687</v>
+        <v>1.954814000249485</v>
       </c>
       <c r="D18">
-        <v>0.3018303766952783</v>
+        <v>0.1484159527937408</v>
       </c>
       <c r="E18">
-        <v>0.04344476443294454</v>
+        <v>0.02538736375368877</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002769947505687516</v>
+        <v>0.0008272749841590584</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.395490914187434</v>
+        <v>13.85477659789441</v>
       </c>
       <c r="J18">
-        <v>0.02995698511191591</v>
+        <v>0.1092802851816828</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8267015867396026</v>
+        <v>0.6196056628300255</v>
       </c>
       <c r="M18">
-        <v>1.014923097210321</v>
+        <v>0.7924020301967616</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.211055962631633</v>
+        <v>3.467586231913685</v>
       </c>
       <c r="C19">
-        <v>1.127204963567749</v>
+        <v>1.936074411221625</v>
       </c>
       <c r="D19">
-        <v>0.3018175109962016</v>
+        <v>0.1478280337264408</v>
       </c>
       <c r="E19">
-        <v>0.04341644664103494</v>
+        <v>0.02528511543350032</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00277061184848548</v>
+        <v>0.0008286727544777328</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.367140130568828</v>
+        <v>13.74265743052231</v>
       </c>
       <c r="J19">
-        <v>0.02969835551167677</v>
+        <v>0.1081277643740748</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8261335100302176</v>
+        <v>0.6155066253902532</v>
       </c>
       <c r="M19">
-        <v>1.014489531898427</v>
+        <v>0.7858593082165157</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.217278379510276</v>
+        <v>3.614637396518162</v>
       </c>
       <c r="C20">
-        <v>1.143608483290564</v>
+        <v>2.021054297267824</v>
       </c>
       <c r="D20">
-        <v>0.3018822868435223</v>
+        <v>0.1505013043847754</v>
       </c>
       <c r="E20">
-        <v>0.04354356057449582</v>
+        <v>0.02574899933109975</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002767639120629332</v>
+        <v>0.0008223739339779508</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.494751550914316</v>
+        <v>14.25035041501135</v>
       </c>
       <c r="J20">
-        <v>0.03086300491060001</v>
+        <v>0.1133530796601505</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8287138383261237</v>
+        <v>0.6341082643084519</v>
       </c>
       <c r="M20">
-        <v>1.016491779988627</v>
+        <v>0.815614317673095</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.242843713712659</v>
+        <v>4.141909049937908</v>
       </c>
       <c r="C21">
-        <v>1.199597439099534</v>
+        <v>2.319485466531546</v>
       </c>
       <c r="D21">
-        <v>0.3022204031362037</v>
+        <v>0.160016554634737</v>
       </c>
       <c r="E21">
-        <v>0.04396514528214901</v>
+        <v>0.02738452409674874</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002757945546381185</v>
+        <v>0.0008009890107148816</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.924092498994526</v>
+        <v>16.01891261583319</v>
       </c>
       <c r="J21">
-        <v>0.03479054421871552</v>
+        <v>0.1316888331586128</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8378034690785654</v>
+        <v>0.6996585289649317</v>
       </c>
       <c r="M21">
-        <v>1.024117353746973</v>
+        <v>0.9217308958196284</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.26304690167143</v>
+        <v>4.516579135965912</v>
       </c>
       <c r="C22">
-        <v>1.236853296082586</v>
+        <v>2.526316364461024</v>
       </c>
       <c r="D22">
-        <v>0.3025313039223931</v>
+        <v>0.166704138448651</v>
       </c>
       <c r="E22">
-        <v>0.04423668177048157</v>
+        <v>0.02852676295778256</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002751828219757289</v>
+        <v>0.000786749942660997</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.205204920225412</v>
+        <v>17.23241367167384</v>
       </c>
       <c r="J22">
-        <v>0.03736906373196547</v>
+        <v>0.1443936532952605</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8440589983345745</v>
+        <v>0.7452355800177344</v>
       </c>
       <c r="M22">
-        <v>1.029774417580256</v>
+        <v>0.9966252031955918</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.251942838825073</v>
+        <v>4.313469879850004</v>
       </c>
       <c r="C23">
-        <v>1.21690765987006</v>
+        <v>2.414690024951256</v>
       </c>
       <c r="D23">
-        <v>0.3023571337712667</v>
+        <v>0.1630867754698926</v>
       </c>
       <c r="E23">
-        <v>0.04409211615364583</v>
+        <v>0.02790923988708993</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002755073297874174</v>
+        <v>0.0007943807509755651</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.055117903958887</v>
+        <v>16.57868236268206</v>
       </c>
       <c r="J23">
-        <v>0.03599173818153645</v>
+        <v>0.1375365767306462</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8406913680314574</v>
+        <v>0.7206262688808067</v>
       </c>
       <c r="M23">
-        <v>1.02669327902727</v>
+        <v>0.9560754107069442</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.216919203371958</v>
+        <v>3.606448991684886</v>
       </c>
       <c r="C24">
-        <v>1.142704415813284</v>
+        <v>2.01634387373548</v>
       </c>
       <c r="D24">
-        <v>0.3018782767301218</v>
+        <v>0.1503526541198994</v>
       </c>
       <c r="E24">
-        <v>0.04353660104648682</v>
+        <v>0.02572327085584636</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002767801257616443</v>
+        <v>0.0008227204512765888</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.487741740754927</v>
+        <v>14.22225847231138</v>
       </c>
       <c r="J24">
-        <v>0.03079899562229826</v>
+        <v>0.1130635107994209</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8285705632512617</v>
+        <v>0.6330763061572071</v>
       </c>
       <c r="M24">
-        <v>1.0163784561543</v>
+        <v>0.8139593449503195</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.194001074140544</v>
+        <v>2.941247865903279</v>
       </c>
       <c r="C25">
-        <v>1.065440776668368</v>
+        <v>1.624368064893986</v>
       </c>
       <c r="D25">
-        <v>0.3017470150730261</v>
+        <v>0.1382039880990789</v>
       </c>
       <c r="E25">
-        <v>0.04291955643820611</v>
+        <v>0.0235855765205315</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002782475569276754</v>
+        <v>0.0008527428608907529</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.877434371012697</v>
+        <v>11.86314032156784</v>
       </c>
       <c r="J25">
-        <v>0.02524225850285688</v>
+        <v>0.08892675504586123</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8168366219946392</v>
+        <v>0.5476294889136994</v>
       </c>
       <c r="M25">
-        <v>1.008118686976751</v>
+        <v>0.6787276129823852</v>
       </c>
       <c r="N25">
         <v>0</v>
